--- a/실무_엑셀_예제_파일/Chapter07/07-022.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-022.xlsx
@@ -1,43 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\3. 피드백_수정\2차 피드백\정리 중인 예제 파일\Chapter07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56033E12-1954-427F-83CA-A88BA0D2EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51161237-90E0-402E-97D9-F64B6783EC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17460" windowHeight="14028" xr2:uid="{D54CBBEC-5B58-40AC-935C-FAAB5EB64B35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D54CBBEC-5B58-40AC-935C-FAAB5EB64B35}"/>
   </bookViews>
   <sheets>
     <sheet name="1학년3반" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1학년3반'!$B$4:$D$12</definedName>
+    <definedName name="과목동적범위">OFFSET('1학년3반'!$F$5,,,COUNTA('1학년3반'!$F$5:$F$11))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>김진선</t>
   </si>
@@ -101,6 +93,10 @@
   </si>
   <si>
     <t>미술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,10 +231,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,25 +553,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5522F4E7-26C8-4107-B7E4-F037DCD7BBC5}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="5" max="5" width="6.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="5" max="5" width="6.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="22.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" ht="10.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -589,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -609,7 +607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -619,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -629,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -639,25 +637,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -669,6 +669,11 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C12" xr:uid="{7C227F2A-4336-433D-8745-79F84DFD663B}">
+      <formula1>과목동적범위</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
